--- a/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW29.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/improved/forecast_point_GW29.xlsx
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8591833393566205</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7018942140593711</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7237157842602859</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.817177038079293</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8635897852871606</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.836955037830866</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.829480839893649</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.7308098792413148</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8550784268775878</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>0.8517224634216889</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.7315735265341947</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -4207,37 +4207,37 @@
         <v>108.0</v>
       </c>
       <c r="B109" t="n">
-        <v>0.39905180161507264</v>
+        <v>0.0</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4170737263226906</v>
+        <v>0.0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.48867551897289707</v>
+        <v>0.0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.49653333333333327</v>
+        <v>0.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4856581529338639</v>
+        <v>0.0</v>
       </c>
       <c r="G109" t="n">
-        <v>0.49901470461430875</v>
+        <v>0.0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.47105189271009007</v>
+        <v>0.0</v>
       </c>
       <c r="I109" t="n">
-        <v>0.44310713588745215</v>
+        <v>0.0</v>
       </c>
       <c r="J109" t="n">
-        <v>0.49432998451302257</v>
+        <v>0.0</v>
       </c>
       <c r="K109" t="n">
-        <v>0.5017431898868595</v>
+        <v>0.0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.47771327629208604</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -4701,37 +4701,37 @@
         <v>121.0</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3261483246743256</v>
+        <v>0.0</v>
       </c>
       <c r="C122" t="n">
-        <v>0.3237008013178531</v>
+        <v>0.0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.371952099329907</v>
+        <v>0.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.39266666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.37778164145233295</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="n">
-        <v>0.34409666926850385</v>
+        <v>0.0</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3807665959899866</v>
+        <v>0.0</v>
       </c>
       <c r="I122" t="n">
-        <v>0.38549763290986594</v>
+        <v>0.0</v>
       </c>
       <c r="J122" t="n">
-        <v>0.3123078163150113</v>
+        <v>0.0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.33813061556239565</v>
+        <v>0.0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.3876755861690902</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.34431201146466495</v>
+        <v>0.0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.34172818188094634</v>
+        <v>0.0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4145348591630158</v>
+        <v>0.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3988208646871369</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.3632599261468983</v>
+        <v>0.0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.40197205579632433</v>
+        <v>0.0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.4069665712206296</v>
+        <v>0.0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.32970070454580364</v>
+        <v>0.0</v>
       </c>
       <c r="K127" t="n">
-        <v>0.3569616140089852</v>
+        <v>0.0</v>
       </c>
       <c r="L127" t="n">
-        <v>0.4092658179462056</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
@@ -5195,37 +5195,37 @@
         <v>134.0</v>
       </c>
       <c r="B135" t="n">
-        <v>0.23892681304000482</v>
+        <v>0.0</v>
       </c>
       <c r="C135" t="n">
-        <v>0.24547570355439058</v>
+        <v>0.0</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2406666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.22051623884403473</v>
+        <v>0.0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.2859731783202897</v>
+        <v>0.0</v>
       </c>
       <c r="G135" t="n">
-        <v>0.2913626229509626</v>
+        <v>0.0</v>
       </c>
       <c r="H135" t="n">
-        <v>0.2461142680933446</v>
+        <v>0.0</v>
       </c>
       <c r="I135" t="n">
-        <v>0.2882563002261446</v>
+        <v>0.0</v>
       </c>
       <c r="J135" t="n">
-        <v>0.28662898342290044</v>
+        <v>0.0</v>
       </c>
       <c r="K135" t="n">
-        <v>0.2913169267025229</v>
+        <v>0.0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2762747401207252</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>0.49636407060331067</v>
+        <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>0.43644871010941005</v>
+        <v>0.0</v>
       </c>
       <c r="D181" t="n">
-        <v>0.5016</v>
+        <v>0.0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.5274009182877996</v>
+        <v>0.0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.4228477873281786</v>
+        <v>0.0</v>
       </c>
       <c r="G181" t="n">
-        <v>0.4905164028290244</v>
+        <v>0.0</v>
       </c>
       <c r="H181" t="n">
-        <v>0.48789723432783494</v>
+        <v>0.0</v>
       </c>
       <c r="I181" t="n">
-        <v>0.4748637897402795</v>
+        <v>0.0</v>
       </c>
       <c r="J181" t="n">
-        <v>0.501875113315661</v>
+        <v>0.0</v>
       </c>
       <c r="K181" t="n">
-        <v>0.49071888157267934</v>
+        <v>0.0</v>
       </c>
       <c r="L181" t="n">
-        <v>0.4640863325297898</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -7019,37 +7019,37 @@
         <v>182.0</v>
       </c>
       <c r="B183" t="n">
-        <v>1.635595507935293</v>
+        <v>0.0</v>
       </c>
       <c r="C183" t="n">
-        <v>1.4381652339006803</v>
+        <v>0.0</v>
       </c>
       <c r="D183" t="n">
-        <v>1.6528486958839745</v>
+        <v>0.0</v>
       </c>
       <c r="E183" t="n">
-        <v>1.7378666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="F183" t="n">
-        <v>1.393348113721699</v>
+        <v>0.0</v>
       </c>
       <c r="G183" t="n">
-        <v>1.6163265484961151</v>
+        <v>0.0</v>
       </c>
       <c r="H183" t="n">
-        <v>1.6076959878073362</v>
+        <v>0.0</v>
       </c>
       <c r="I183" t="n">
-        <v>1.5647487950453405</v>
+        <v>0.0</v>
       </c>
       <c r="J183" t="n">
-        <v>1.6537552363245858</v>
+        <v>0.0</v>
       </c>
       <c r="K183" t="n">
-        <v>1.61699374691596</v>
+        <v>0.0</v>
       </c>
       <c r="L183" t="n">
-        <v>1.5292354256368415</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>0.3767676699050987</v>
+        <v>0.0</v>
       </c>
       <c r="C312" t="n">
-        <v>0.3840262492812366</v>
+        <v>0.0</v>
       </c>
       <c r="D312" t="n">
-        <v>0.39679999999999993</v>
+        <v>0.0</v>
       </c>
       <c r="E312" t="n">
-        <v>0.3244852146697682</v>
+        <v>0.0</v>
       </c>
       <c r="F312" t="n">
-        <v>0.39562677205850316</v>
+        <v>0.0</v>
       </c>
       <c r="G312" t="n">
-        <v>0.3318925601774968</v>
+        <v>0.0</v>
       </c>
       <c r="H312" t="n">
-        <v>0.3778379213998924</v>
+        <v>0.0</v>
       </c>
       <c r="I312" t="n">
-        <v>0.3296358636929637</v>
+        <v>0.0</v>
       </c>
       <c r="J312" t="n">
-        <v>0.39940713594275434</v>
+        <v>0.0</v>
       </c>
       <c r="K312" t="n">
-        <v>0.3317556158064186</v>
+        <v>0.0</v>
       </c>
       <c r="L312" t="n">
-        <v>0.32814191251490576</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="313">
@@ -12453,37 +12453,37 @@
         <v>325.0</v>
       </c>
       <c r="B326" t="n">
-        <v>-0.3949798444557352</v>
+        <v>-0.0</v>
       </c>
       <c r="C326" t="n">
-        <v>-0.41281787197245906</v>
+        <v>-0.0</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.4836890340854186</v>
+        <v>-0.0</v>
       </c>
       <c r="E326" t="n">
-        <v>-0.49146666666666666</v>
+        <v>-0.0</v>
       </c>
       <c r="F326" t="n">
-        <v>-0.48070245749576324</v>
+        <v>-0.0</v>
       </c>
       <c r="G326" t="n">
-        <v>-0.4939227178325301</v>
+        <v>-0.0</v>
       </c>
       <c r="H326" t="n">
-        <v>-0.4662452407436606</v>
+        <v>-0.0</v>
       </c>
       <c r="I326" t="n">
-        <v>-0.43858563450084553</v>
+        <v>-0.0</v>
       </c>
       <c r="J326" t="n">
-        <v>-0.48928580099758356</v>
+        <v>-0.0</v>
       </c>
       <c r="K326" t="n">
-        <v>-0.49662336141862623</v>
+        <v>-0.0</v>
       </c>
       <c r="L326" t="n">
-        <v>-0.47283865102379946</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="327">
@@ -12947,37 +12947,37 @@
         <v>338.0</v>
       </c>
       <c r="B339" t="n">
-        <v>1.3973804900581064</v>
+        <v>0.0</v>
       </c>
       <c r="C339" t="n">
-        <v>1.3868940912985503</v>
+        <v>0.0</v>
       </c>
       <c r="D339" t="n">
-        <v>1.5936264807086482</v>
+        <v>0.0</v>
       </c>
       <c r="E339" t="n">
-        <v>1.6823779169923907</v>
+        <v>0.0</v>
       </c>
       <c r="F339" t="n">
-        <v>1.6186031180591056</v>
+        <v>0.0</v>
       </c>
       <c r="G339" t="n">
-        <v>1.4742800620236802</v>
+        <v>0.0</v>
       </c>
       <c r="H339" t="n">
-        <v>1.6313921374072584</v>
+        <v>0.0</v>
       </c>
       <c r="I339" t="n">
-        <v>1.6516622359772435</v>
+        <v>0.0</v>
       </c>
       <c r="J339" t="n">
-        <v>1.3380809171625405</v>
+        <v>0.0</v>
       </c>
       <c r="K339" t="n">
-        <v>1.448718541632983</v>
+        <v>0.0</v>
       </c>
       <c r="L339" t="n">
-        <v>1.6609936633139848</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="340">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>0.6728954909070296</v>
+        <v>0.0</v>
       </c>
       <c r="C353" t="n">
-        <v>0.6678458637715706</v>
+        <v>0.0</v>
       </c>
       <c r="D353" t="n">
-        <v>0.7673959101964398</v>
+        <v>0.0</v>
       </c>
       <c r="E353" t="n">
-        <v>0.8101333333333334</v>
+        <v>0.0</v>
       </c>
       <c r="F353" t="n">
-        <v>0.7794231760490238</v>
+        <v>0.0</v>
       </c>
       <c r="G353" t="n">
-        <v>0.7099257597539659</v>
+        <v>0.0</v>
       </c>
       <c r="H353" t="n">
-        <v>0.7855816085688144</v>
+        <v>0.0</v>
       </c>
       <c r="I353" t="n">
-        <v>0.7953424847403551</v>
+        <v>0.0</v>
       </c>
       <c r="J353" t="n">
-        <v>0.6443403368183391</v>
+        <v>0.0</v>
       </c>
       <c r="K353" t="n">
-        <v>0.6976168489497847</v>
+        <v>0.0</v>
       </c>
       <c r="L353" t="n">
-        <v>0.7998359462014913</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -14239,37 +14239,37 @@
         <v>372.0</v>
       </c>
       <c r="B373" t="n">
-        <v>1.8114854063656383</v>
+        <v>0.0</v>
       </c>
       <c r="C373" t="n">
-        <v>2.1399818114866163</v>
+        <v>0.0</v>
       </c>
       <c r="D373" t="n">
-        <v>2.0367307880734296</v>
+        <v>0.0</v>
       </c>
       <c r="E373" t="n">
-        <v>1.8169908929199003</v>
+        <v>0.0</v>
       </c>
       <c r="F373" t="n">
-        <v>1.7995879751999053</v>
+        <v>0.0</v>
       </c>
       <c r="G373" t="n">
-        <v>2.068673775100594</v>
+        <v>0.0</v>
       </c>
       <c r="H373" t="n">
-        <v>2.1049289543634346</v>
+        <v>0.0</v>
       </c>
       <c r="I373" t="n">
-        <v>2.0271312766705214</v>
+        <v>0.0</v>
       </c>
       <c r="J373" t="n">
-        <v>2.132193954651072</v>
+        <v>0.0</v>
       </c>
       <c r="K373" t="n">
-        <v>2.1217470295153165</v>
+        <v>0.0</v>
       </c>
       <c r="L373" t="n">
-        <v>2.1596736689202576</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="374">
@@ -15645,37 +15645,37 @@
         <v>409.0</v>
       </c>
       <c r="B410" t="n">
-        <v>1.5103955543903134</v>
+        <v>0.0</v>
       </c>
       <c r="C410" t="n">
-        <v>1.5373456714856792</v>
+        <v>0.0</v>
       </c>
       <c r="D410" t="n">
-        <v>1.6130770314721514</v>
+        <v>0.0</v>
       </c>
       <c r="E410" t="n">
-        <v>1.6612311546380352</v>
+        <v>0.0</v>
       </c>
       <c r="F410" t="n">
-        <v>1.7124258007327184</v>
+        <v>0.0</v>
       </c>
       <c r="G410" t="n">
-        <v>1.744698142115896</v>
+        <v>0.0</v>
       </c>
       <c r="H410" t="n">
-        <v>1.4737480804562249</v>
+        <v>0.0</v>
       </c>
       <c r="I410" t="n">
-        <v>1.7260972816763795</v>
+        <v>0.0</v>
       </c>
       <c r="J410" t="n">
-        <v>1.7163528039032923</v>
+        <v>0.0</v>
       </c>
       <c r="K410" t="n">
-        <v>1.7444245100386349</v>
+        <v>0.0</v>
       </c>
       <c r="L410" t="n">
-        <v>1.6543509284761844</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="411">
@@ -15873,37 +15873,37 @@
         <v>415.0</v>
       </c>
       <c r="B416" t="n">
-        <v>4.181353858819741</v>
+        <v>0.0</v>
       </c>
       <c r="C416" t="n">
-        <v>4.2559621134486685</v>
+        <v>0.0</v>
       </c>
       <c r="D416" t="n">
-        <v>4.465615547208228</v>
+        <v>0.0</v>
       </c>
       <c r="E416" t="n">
-        <v>4.598924618552142</v>
+        <v>0.0</v>
       </c>
       <c r="F416" t="n">
-        <v>4.7406510228551015</v>
+        <v>0.0</v>
       </c>
       <c r="G416" t="n">
-        <v>4.829993234425745</v>
+        <v>0.0</v>
       </c>
       <c r="H416" t="n">
-        <v>4.07989960327398</v>
+        <v>0.0</v>
       </c>
       <c r="I416" t="n">
-        <v>4.778498922654194</v>
+        <v>0.0</v>
       </c>
       <c r="J416" t="n">
-        <v>4.7515224729286585</v>
+        <v>0.0</v>
       </c>
       <c r="K416" t="n">
-        <v>4.8292357159473385</v>
+        <v>0.0</v>
       </c>
       <c r="L416" t="n">
-        <v>4.579877515210382</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="417">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>2.2021601586942134</v>
+        <v>0.0</v>
       </c>
       <c r="C423" t="n">
-        <v>1.9363407177078877</v>
+        <v>0.0</v>
       </c>
       <c r="D423" t="n">
-        <v>2.2253897915262404</v>
+        <v>0.0</v>
       </c>
       <c r="E423" t="n">
-        <v>2.339857694575825</v>
+        <v>0.0</v>
       </c>
       <c r="F423" t="n">
-        <v>1.8759991014545203</v>
+        <v>0.0</v>
       </c>
       <c r="G423" t="n">
-        <v>2.176216498069944</v>
+        <v>0.0</v>
       </c>
       <c r="H423" t="n">
-        <v>2.164596340883273</v>
+        <v>0.0</v>
       </c>
       <c r="I423" t="n">
-        <v>2.1067723884638774</v>
+        <v>0.0</v>
       </c>
       <c r="J423" t="n">
-        <v>2.2266103544532436</v>
+        <v>0.0</v>
       </c>
       <c r="K423" t="n">
-        <v>2.1771148117245107</v>
+        <v>0.0</v>
       </c>
       <c r="L423" t="n">
-        <v>2.058957310204638</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="424">
@@ -17013,37 +17013,37 @@
         <v>445.0</v>
       </c>
       <c r="B446" t="n">
-        <v>0.4579718679810302</v>
+        <v>0.0</v>
       </c>
       <c r="C446" t="n">
-        <v>0.4585564519051368</v>
+        <v>0.0</v>
       </c>
       <c r="D446" t="n">
-        <v>0.4009333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E446" t="n">
-        <v>0.4669473922582827</v>
+        <v>0.0</v>
       </c>
       <c r="F446" t="n">
-        <v>0.46183552618836926</v>
+        <v>0.0</v>
       </c>
       <c r="G446" t="n">
-        <v>0.3901630874884188</v>
+        <v>0.0</v>
       </c>
       <c r="H446" t="n">
-        <v>0.4598312005967126</v>
+        <v>0.0</v>
       </c>
       <c r="I446" t="n">
-        <v>0.45425157406056316</v>
+        <v>0.0</v>
       </c>
       <c r="J446" t="n">
-        <v>0.39482910826749973</v>
+        <v>0.0</v>
       </c>
       <c r="K446" t="n">
-        <v>0.3902149115332805</v>
+        <v>0.0</v>
       </c>
       <c r="L446" t="n">
-        <v>0.479963449457226</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="447">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>0.4227574398725231</v>
+        <v>0.0</v>
       </c>
       <c r="C473" t="n">
-        <v>0.43421027237833193</v>
+        <v>0.0</v>
       </c>
       <c r="D473" t="n">
-        <v>0.4116596898892584</v>
+        <v>0.0</v>
       </c>
       <c r="E473" t="n">
-        <v>0.4009333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F473" t="n">
-        <v>0.3786349691094201</v>
+        <v>0.0</v>
       </c>
       <c r="G473" t="n">
-        <v>0.36459120515079907</v>
+        <v>0.0</v>
       </c>
       <c r="H473" t="n">
-        <v>0.4321148292777783</v>
+        <v>0.0</v>
       </c>
       <c r="I473" t="n">
-        <v>0.3616163186097699</v>
+        <v>0.0</v>
       </c>
       <c r="J473" t="n">
-        <v>0.42366541992129986</v>
+        <v>0.0</v>
       </c>
       <c r="K473" t="n">
-        <v>0.362704443326919</v>
+        <v>0.0</v>
       </c>
       <c r="L473" t="n">
-        <v>0.4189922513271786</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="474">
@@ -19065,37 +19065,37 @@
         <v>499.0</v>
       </c>
       <c r="B500" t="n">
-        <v>8.465547302092368</v>
+        <v>0.0</v>
       </c>
       <c r="C500" t="n">
-        <v>8.09736145535683</v>
+        <v>0.0</v>
       </c>
       <c r="D500" t="n">
-        <v>8.272696234940579</v>
+        <v>0.0</v>
       </c>
       <c r="E500" t="n">
-        <v>7.193828049142861</v>
+        <v>0.0</v>
       </c>
       <c r="F500" t="n">
-        <v>8.136896719074226</v>
+        <v>0.0</v>
       </c>
       <c r="G500" t="n">
-        <v>8.398727556754219</v>
+        <v>0.0</v>
       </c>
       <c r="H500" t="n">
-        <v>8.398727556754219</v>
+        <v>0.0</v>
       </c>
       <c r="I500" t="n">
-        <v>8.398727556754219</v>
+        <v>0.0</v>
       </c>
       <c r="J500" t="n">
-        <v>8.398727556754219</v>
+        <v>0.0</v>
       </c>
       <c r="K500" t="n">
-        <v>8.398727556754219</v>
+        <v>0.0</v>
       </c>
       <c r="L500" t="n">
-        <v>8.398727556754219</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="501">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>1.3115149205170153</v>
+        <v>0.0</v>
       </c>
       <c r="C510" t="n">
-        <v>1.3830798514928682</v>
+        <v>0.0</v>
       </c>
       <c r="D510" t="n">
-        <v>1.1505067426394615</v>
+        <v>0.0</v>
       </c>
       <c r="E510" t="n">
-        <v>1.3106917743124904</v>
+        <v>0.0</v>
       </c>
       <c r="F510" t="n">
-        <v>1.0940269655180554</v>
+        <v>0.0</v>
       </c>
       <c r="G510" t="n">
-        <v>1.2726110968374118</v>
+        <v>0.0</v>
       </c>
       <c r="H510" t="n">
-        <v>1.3301195182432453</v>
+        <v>0.0</v>
       </c>
       <c r="I510" t="n">
-        <v>1.3012937932750566</v>
+        <v>0.0</v>
       </c>
       <c r="J510" t="n">
-        <v>1.1771370216922035</v>
+        <v>0.0</v>
       </c>
       <c r="K510" t="n">
-        <v>1.271640878010425</v>
+        <v>0.0</v>
       </c>
       <c r="L510" t="n">
-        <v>1.3059643743360527</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="511">
@@ -20547,37 +20547,37 @@
         <v>538.0</v>
       </c>
       <c r="B539" t="n">
-        <v>0.2917305253199141</v>
+        <v>0.0</v>
       </c>
       <c r="C539" t="n">
-        <v>0.23832395067143802</v>
+        <v>0.0</v>
       </c>
       <c r="D539" t="n">
-        <v>0.2457333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E539" t="n">
-        <v>0.27746753885702735</v>
+        <v>0.0</v>
       </c>
       <c r="F539" t="n">
-        <v>0.2932267074817713</v>
+        <v>0.0</v>
       </c>
       <c r="G539" t="n">
-        <v>0.2841830394876892</v>
+        <v>0.0</v>
       </c>
       <c r="H539" t="n">
-        <v>0.28164522061866626</v>
+        <v>0.0</v>
       </c>
       <c r="I539" t="n">
-        <v>0.24814209053413594</v>
+        <v>0.0</v>
       </c>
       <c r="J539" t="n">
-        <v>0.2903367270244337</v>
+        <v>0.0</v>
       </c>
       <c r="K539" t="n">
-        <v>0.289197229856487</v>
+        <v>0.0</v>
       </c>
       <c r="L539" t="n">
-        <v>0.24840138237058826</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="540">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>0.3808174597020083</v>
+        <v>0.0</v>
       </c>
       <c r="C576" t="n">
-        <v>0.3842069463692896</v>
+        <v>0.0</v>
       </c>
       <c r="D576" t="n">
-        <v>0.325464552413688</v>
+        <v>0.0</v>
       </c>
       <c r="E576" t="n">
-        <v>0.3968</v>
+        <v>0.0</v>
       </c>
       <c r="F576" t="n">
-        <v>0.38276539003771526</v>
+        <v>0.0</v>
       </c>
       <c r="G576" t="n">
-        <v>0.3962619981409747</v>
+        <v>0.0</v>
       </c>
       <c r="H576" t="n">
-        <v>0.33447218774809906</v>
+        <v>0.0</v>
       </c>
       <c r="I576" t="n">
-        <v>0.40916122977168895</v>
+        <v>0.0</v>
       </c>
       <c r="J576" t="n">
-        <v>0.33601540529721724</v>
+        <v>0.0</v>
       </c>
       <c r="K576" t="n">
-        <v>0.39575840887156816</v>
+        <v>0.0</v>
       </c>
       <c r="L576" t="n">
-        <v>0.34165367422772436</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="577">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.41404079162772883</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.42525748325712925</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.4031718612317479</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.3926666666666666</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.37082806252984446</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.3570738607147001</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.42320524516895813</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.3541603120404963</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.4149300504383865</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.3552260011964671</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.41035323583589656</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>0.7798556240718595</v>
+        <v>0.0</v>
       </c>
       <c r="C618" t="n">
-        <v>0.8224097064042452</v>
+        <v>0.0</v>
       </c>
       <c r="D618" t="n">
-        <v>0.6841166194482031</v>
+        <v>0.0</v>
       </c>
       <c r="E618" t="n">
-        <v>0.7793661632300574</v>
+        <v>0.0</v>
       </c>
       <c r="F618" t="n">
-        <v>0.6505325014596025</v>
+        <v>0.0</v>
       </c>
       <c r="G618" t="n">
-        <v>0.9258904397990103</v>
+        <v>0.0</v>
       </c>
       <c r="H618" t="n">
-        <v>0.755888102239131</v>
+        <v>0.0</v>
       </c>
       <c r="I618" t="n">
-        <v>0.9070292100920447</v>
+        <v>0.0</v>
       </c>
       <c r="J618" t="n">
-        <v>0.866623302450893</v>
+        <v>0.0</v>
       </c>
       <c r="K618" t="n">
-        <v>0.9307068537334096</v>
+        <v>0.0</v>
       </c>
       <c r="L618" t="n">
-        <v>0.8181180223040864</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="619">
